--- a/IdirectHoldingStock/海外持仓股票.xlsx
+++ b/IdirectHoldingStock/海外持仓股票.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB9E17-7760-4A98-87CE-D4FBB137389F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C88E1B-BCD9-4BC6-83FE-FD1CB6EA0FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,9 +914,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000#"/>
+    <numFmt numFmtId="177" formatCode="0000#"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1079,7 +1080,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,15 +1090,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1138,7 +1130,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1427,7 +1429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1450,13 +1452,13 @@
       <c r="C1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>279</v>
       </c>
     </row>
@@ -1467,2183 +1469,2183 @@
       <c r="B2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <f>SUM(D2:P2)</f>
         <v>35400</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <f>恒生!$H$1</f>
         <v>6400</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <f>海外中国互联网!$F$2</f>
         <v>12800</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f>德国DAX30!$F$2</f>
         <v>16200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="23">
         <f>恒生!A3</f>
         <v>700</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="12" t="str">
         <f>恒生!C3</f>
         <v>騰訊控股</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <f>SUM(D3:P3)</f>
         <v>2060.8000000000002</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <f>恒生!G3</f>
         <v>623.36</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f>海外中国互联网!E3</f>
         <v>1437.44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="14" t="str">
         <f>德国DAX30!B3</f>
         <v>SAPGY</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" s="14" t="str">
         <f>德国DAX30!C3</f>
         <v>SAP公司</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <f>SUM(D4:P4)</f>
         <v>1569.78</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f>德国DAX30!E3</f>
         <v>1569.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="str">
+      <c r="A5" s="14" t="str">
         <f>德国DAX30!B4</f>
         <v>SIEGY</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="14" t="str">
         <f>德国DAX30!C4</f>
         <v>西门子</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <f>SUM(D5:P5)</f>
         <v>1388.34</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f>德国DAX30!E4</f>
         <v>1388.34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="str">
+      <c r="A6" s="14" t="str">
         <f>德国DAX30!B5</f>
         <v>LINGY</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="14" t="str">
         <f>德国DAX30!C5</f>
         <v>Linde股份有限公司</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <f>SUM(D6:P6)</f>
         <v>1349.46</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f>德国DAX30!E5</f>
         <v>1349.46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="str">
+      <c r="A7" s="14" t="str">
         <f>德国DAX30!B6</f>
         <v>ALVGY</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="14" t="str">
         <f>德国DAX30!C6</f>
         <v>安联保险</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <f>SUM(D7:P7)</f>
         <v>1313.8200000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f>德国DAX30!E6</f>
         <v>1313.8200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="str">
+      <c r="A8" s="13" t="str">
         <f>海外中国互联网!B4</f>
         <v>BABA.US</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="13" t="str">
         <f>海外中国互联网!C4</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <f>SUM(D8:P8)</f>
         <v>1113.5999999999999</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f>海外中国互联网!E4</f>
         <v>1113.5999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="14" t="str">
         <f>德国DAX30!B7</f>
         <v>BAYNGY</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="14" t="str">
         <f>德国DAX30!C7</f>
         <v>拜耳股份有限公司</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <f>SUM(D9:P9)</f>
         <v>997.92000000000007</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f>德国DAX30!E7</f>
         <v>997.92000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="str">
+      <c r="A10" s="14" t="str">
         <f>德国DAX30!B8</f>
         <v>BASGY</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="14" t="str">
         <f>德国DAX30!C8</f>
         <v>巴斯夫欧洲公司</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <f>SUM(D10:P10)</f>
         <v>980.1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f>德国DAX30!E8</f>
         <v>980.1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="str">
+      <c r="A11" s="13" t="str">
         <f>海外中国互联网!B5</f>
         <v>BIDU.US</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="13" t="str">
         <f>海外中国互联网!C5</f>
         <v>百度</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <f>SUM(D11:P11)</f>
         <v>892.16</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f>海外中国互联网!E5</f>
         <v>892.16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="str">
+      <c r="A12" s="14" t="str">
         <f>德国DAX30!B9</f>
         <v>DTEGY</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="14" t="str">
         <f>德国DAX30!C9</f>
         <v>德国电信</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f>SUM(D12:P12)</f>
         <v>842.4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <f>德国DAX30!E9</f>
         <v>842.4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="13" t="str">
         <f>海外中国互联网!B6</f>
         <v>03690.HK</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="13" t="str">
         <f>海外中国互联网!C6</f>
         <v>美团点评-W</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <f>SUM(D13:P13)</f>
         <v>828.16</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f>海外中国互联网!E6</f>
         <v>828.16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="13" t="str">
         <f>海外中国互联网!B7</f>
         <v>NTES.US</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="13" t="str">
         <f>海外中国互联网!C7</f>
         <v>网易</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <f>SUM(D14:P14)</f>
         <v>807.68000000000006</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f>海外中国互联网!E7</f>
         <v>807.68000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="14" t="str">
         <f>德国DAX30!B10</f>
         <v>DAIGY</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="14" t="str">
         <f>德国DAX30!C10</f>
         <v>戴姆勒克莱斯勒</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <f>SUM(D15:P15)</f>
         <v>724.14</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>德国DAX30!E10</f>
         <v>724.14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <f>恒生!A2</f>
         <v>1299</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="12" t="str">
         <f>恒生!C2</f>
         <v>友邦保險</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <f>SUM(D16:P16)</f>
         <v>645.12</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <f>恒生!G2</f>
         <v>645.12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="14" t="str">
         <f>德国DAX30!B11</f>
         <v>ADSGY</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="14" t="str">
         <f>德国DAX30!C11</f>
         <v>阿迪达斯公司</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <f>SUM(D17:P17)</f>
         <v>588.05999999999995</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f>德国DAX30!E11</f>
         <v>588.05999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <f>恒生!A4</f>
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="12" t="str">
         <f>恒生!C4</f>
         <v>滙豐控股</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <f>SUM(D18:P18)</f>
         <v>574.08000000000004</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <f>恒生!G4</f>
         <v>574.08000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <f>恒生!A5</f>
         <v>939</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="12" t="str">
         <f>恒生!C5</f>
         <v>建設銀⾏</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <f>SUM(D19:P19)</f>
         <v>513.91999999999996</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <f>恒生!G5</f>
         <v>513.91999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="str">
+      <c r="A20" s="13" t="str">
         <f>海外中国互联网!B8</f>
         <v>PDD.US</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="13" t="str">
         <f>海外中国互联网!C8</f>
         <v>拼多多</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <f>SUM(D20:P20)</f>
         <v>513.28</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>海外中国互联网!E8</f>
         <v>513.28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="str">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
         <f>德国DAX30!B12</f>
         <v>MUV2GY</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="15" t="str">
         <f>德国DAX30!C12</f>
         <v>MuenchenerRueckversicherungs股份有限公司</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <f>SUM(D21:P21)</f>
         <v>498.96000000000004</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f>德国DAX30!E12</f>
         <v>498.96000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="str">
+      <c r="A22" s="13" t="str">
         <f>海外中国互联网!B9</f>
         <v>JD.US</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="13" t="str">
         <f>海外中国互联网!C9</f>
         <v>京东</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <f>SUM(D22:P22)</f>
         <v>494.08000000000004</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <f>海外中国互联网!E9</f>
         <v>494.08000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="str">
+      <c r="A23" s="13" t="str">
         <f>海外中国互联网!B10</f>
         <v>TAL.US</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="13" t="str">
         <f>海外中国互联网!C10</f>
         <v>好未来</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <f>SUM(D23:P23)</f>
         <v>485.12000000000006</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f>海外中国互联网!E10</f>
         <v>485.12000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="str">
+      <c r="A24" s="13" t="str">
         <f>海外中国互联网!B11</f>
         <v>CTRP.US</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="13" t="str">
         <f>海外中国互联网!C11</f>
         <v>携程</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <f>SUM(D24:P24)</f>
         <v>480</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <f>海外中国互联网!E11</f>
         <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="str">
+      <c r="A25" s="13" t="str">
         <f>海外中国互联网!B12</f>
         <v>WUBA.US</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="13" t="str">
         <f>海外中国互联网!C12</f>
         <v>58同城</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <f>SUM(D25:P25)</f>
         <v>467.2</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <f>海外中国互联网!E12</f>
         <v>467.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="str">
+      <c r="A26" s="14" t="str">
         <f>德国DAX30!B13</f>
         <v>VOW3GY</v>
       </c>
-      <c r="B26" s="17" t="str">
+      <c r="B26" s="14" t="str">
         <f>德国DAX30!C13</f>
         <v>大众汽车有限公司</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <f>SUM(D26:P26)</f>
         <v>455.22</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f>德国DAX30!E13</f>
         <v>455.22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="str">
+      <c r="A27" s="13" t="str">
         <f>海外中国互联网!B13</f>
         <v>ATHM.US</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="13" t="str">
         <f>海外中国互联网!C13</f>
         <v>汽车之家</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <f>SUM(D27:P27)</f>
         <v>442.88</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <f>海外中国互联网!E13</f>
         <v>442.88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="str">
+      <c r="A28" s="14" t="str">
         <f>德国DAX30!B14</f>
         <v>BMWGY</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="14" t="str">
         <f>德国DAX30!C14</f>
         <v>宝马汽车股份有限公司</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <f>SUM(D28:P28)</f>
         <v>400.14</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <f>德国DAX30!E14</f>
         <v>400.14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="14" t="str">
         <f>德国DAX30!B15</f>
         <v>DPWGY</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="14" t="str">
         <f>德国DAX30!C15</f>
         <v>德国邮政有限公司</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <f>SUM(D29:P29)</f>
         <v>400.14</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <f>德国DAX30!E15</f>
         <v>400.14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="str">
+      <c r="A30" s="13" t="str">
         <f>海外中国互联网!B14</f>
         <v>IQ.US</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="13" t="str">
         <f>海外中国互联网!C14</f>
         <v>爱奇艺</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <f>SUM(D30:P30)</f>
         <v>372.48</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="10">
         <f>海外中国互联网!E14</f>
         <v>372.48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="str">
+      <c r="A31" s="13" t="str">
         <f>海外中国互联网!B15</f>
         <v>SINA.US</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="13" t="str">
         <f>海外中国互联网!C15</f>
         <v>新浪</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <f>SUM(D31:P31)</f>
         <v>369.91999999999996</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="10">
         <f>海外中国互联网!E15</f>
         <v>369.91999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="str">
+      <c r="A32" s="13" t="str">
         <f>海外中国互联网!B16</f>
         <v>MOMO.US</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="13" t="str">
         <f>海外中国互联网!C16</f>
         <v>陌陌</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <f>SUM(D32:P32)</f>
         <v>350.72</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="10">
         <f>海外中国互联网!E16</f>
         <v>350.72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="str">
+      <c r="A33" s="14" t="str">
         <f>德国DAX30!B16</f>
         <v>IFXGY</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="14" t="str">
         <f>德国DAX30!C16</f>
         <v>英飞凌科技有限公司</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <f>SUM(D33:P33)</f>
         <v>346.68</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <f>德国DAX30!E16</f>
         <v>346.68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <f>恒生!A6</f>
         <v>941</v>
       </c>
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="12" t="str">
         <f>恒生!C6</f>
         <v>中國移動</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <f>SUM(D34:P34)</f>
         <v>345.6</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <f>恒生!G6</f>
         <v>345.6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="14" t="str">
         <f>德国DAX30!B17</f>
         <v>DB1GY</v>
       </c>
-      <c r="B35" s="17" t="str">
+      <c r="B35" s="14" t="str">
         <f>德国DAX30!C17</f>
         <v>德意志交易所有限公司</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <f>SUM(D35:P35)</f>
         <v>343.44</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <f>德国DAX30!E17</f>
         <v>343.44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="str">
+      <c r="A36" s="14" t="str">
         <f>德国DAX30!B18</f>
         <v>VNAGY</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="14" t="str">
         <f>德国DAX30!C18</f>
         <v>Vonovia有限公司</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <f>SUM(D36:P36)</f>
         <v>338.58</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <f>德国DAX30!E18</f>
         <v>338.58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="str">
+      <c r="A37" s="13" t="str">
         <f>海外中国互联网!B17</f>
         <v>WB.US</v>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="13" t="str">
         <f>海外中国互联网!C17</f>
         <v>微博</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <f>SUM(D37:P37)</f>
         <v>337.92</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="10">
         <f>海外中国互联网!E17</f>
         <v>337.92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="str">
+      <c r="A38" s="14" t="str">
         <f>德国DAX30!B19</f>
         <v>EOANGY</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="14" t="str">
         <f>德国DAX30!C19</f>
         <v>E.ON公司</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <f>SUM(D38:P38)</f>
         <v>330.48</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <f>德国DAX30!E19</f>
         <v>330.48</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <f>恒生!A7</f>
         <v>2318</v>
       </c>
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="12" t="str">
         <f>恒生!C7</f>
         <v>中國平安</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <f>SUM(D39:P39)</f>
         <v>314.24</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="10">
         <f>恒生!G7</f>
         <v>314.24</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="str">
+      <c r="A40" s="14" t="str">
         <f>德国DAX30!B20</f>
         <v>FREGY</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="14" t="str">
         <f>德国DAX30!C20</f>
         <v>费森尤斯集团</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <f>SUM(D40:P40)</f>
         <v>306.18</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="10">
         <f>德国DAX30!E20</f>
         <v>306.18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
+      <c r="A41" s="23">
         <f>恒生!A8</f>
         <v>1398</v>
       </c>
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="12" t="str">
         <f>恒生!C8</f>
         <v>⼯商銀⾏</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <f>SUM(D41:P41)</f>
         <v>303.36</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="10">
         <f>恒生!G8</f>
         <v>303.36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="str">
+      <c r="A42" s="13" t="str">
         <f>海外中国互联网!B18</f>
         <v>01060.HK</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="13" t="str">
         <f>海外中国互联网!C18</f>
         <v>阿里影业</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <f>SUM(D42:P42)</f>
         <v>298.24</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="10">
         <f>海外中国互联网!E18</f>
         <v>298.24</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="str">
+      <c r="A43" s="14" t="str">
         <f>德国DAX30!B21</f>
         <v>HEN3GY</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="14" t="str">
         <f>德国DAX30!C21</f>
         <v>汉高有限公司</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="11">
         <f>SUM(D43:P43)</f>
         <v>294.84000000000003</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <f>德国DAX30!E21</f>
         <v>294.84000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="str">
+      <c r="A44" s="13" t="str">
         <f>海外中国互联网!B19</f>
         <v>YY.US</v>
       </c>
-      <c r="B44" s="16" t="str">
+      <c r="B44" s="13" t="str">
         <f>海外中国互联网!C19</f>
         <v>欢聚时代</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="11">
         <f>SUM(D44:P44)</f>
         <v>293.12</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="10">
         <f>海外中国互联网!E19</f>
         <v>293.12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="str">
+      <c r="A45" s="14" t="str">
         <f>德国DAX30!B22</f>
         <v>WDIGY</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="14" t="str">
         <f>德国DAX30!C22</f>
         <v>Wirecard股份公司</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="11">
         <f>SUM(D45:P45)</f>
         <v>265.68</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="10">
         <f>德国DAX30!E22</f>
         <v>265.68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="str">
+      <c r="A46" s="13" t="str">
         <f>海外中国互联网!B20</f>
         <v>TME.US</v>
       </c>
-      <c r="B46" s="16" t="str">
+      <c r="B46" s="13" t="str">
         <f>海外中国互联网!C20</f>
         <v>腾讯音乐</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="11">
         <f>SUM(D46:P46)</f>
         <v>262.40000000000003</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="10">
         <f>海外中国互联网!E20</f>
         <v>262.40000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="str">
+      <c r="A47" s="13" t="str">
         <f>海外中国互联网!B21</f>
         <v>VIPS.US</v>
       </c>
-      <c r="B47" s="16" t="str">
+      <c r="B47" s="13" t="str">
         <f>海外中国互联网!C21</f>
         <v>唯品会</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="11">
         <f>SUM(D47:P47)</f>
         <v>244.48</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="10">
         <f>海外中国互联网!E21</f>
         <v>244.48</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="str">
+      <c r="A48" s="14" t="str">
         <f>德国DAX30!B23</f>
         <v>DBKGY</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="14" t="str">
         <f>德国DAX30!C23</f>
         <v>德意志银行</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="11">
         <f>SUM(D48:P48)</f>
         <v>234.9</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="10">
         <f>德国DAX30!E23</f>
         <v>234.9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="str">
+      <c r="A49" s="14" t="str">
         <f>德国DAX30!B24</f>
         <v>CONGY</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="14" t="str">
         <f>德国DAX30!C24</f>
         <v>德国大陆股份公司</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="11">
         <f>SUM(D49:P49)</f>
         <v>226.8</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <f>德国DAX30!E24</f>
         <v>226.8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="A50" s="23">
         <f>恒生!A9</f>
         <v>388</v>
       </c>
-      <c r="B50" s="15" t="str">
+      <c r="B50" s="12" t="str">
         <f>恒生!C9</f>
         <v>香港交易所</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="11">
         <f>SUM(D50:P50)</f>
         <v>218.88</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="10">
         <f>恒生!G9</f>
         <v>218.88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="str">
+      <c r="A51" s="13" t="str">
         <f>海外中国互联网!B22</f>
         <v>00772.HK</v>
       </c>
-      <c r="B51" s="16" t="str">
+      <c r="B51" s="13" t="str">
         <f>海外中国互联网!C22</f>
         <v>阅文集团</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="11">
         <f>SUM(D51:P51)</f>
         <v>216.32</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="10">
         <f>海外中国互联网!E22</f>
         <v>216.32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="str">
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="str">
         <f>德国DAX30!B25</f>
         <v>FMEGY</v>
       </c>
-      <c r="B52" s="18" t="str">
+      <c r="B52" s="15" t="str">
         <f>德国DAX30!C25</f>
         <v>费森尤斯医药用品AG&amp;CoKGaA</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="11">
         <f>SUM(D52:P52)</f>
         <v>212.22</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="10">
         <f>德国DAX30!E25</f>
         <v>212.22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="str">
+      <c r="A53" s="13" t="str">
         <f>海外中国互联网!B23</f>
         <v>BILI.US</v>
       </c>
-      <c r="B53" s="16" t="str">
+      <c r="B53" s="13" t="str">
         <f>海外中国互联网!C23</f>
         <v>哔哩哔哩</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="11">
         <f>SUM(D53:P53)</f>
         <v>211.20000000000002</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="10">
         <f>海外中国互联网!E23</f>
         <v>211.20000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="str">
+      <c r="A54" s="14" t="str">
         <f>德国DAX30!B26</f>
         <v>MRKGY</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="14" t="str">
         <f>德国DAX30!C26</f>
         <v>德国默克集团</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="11">
         <f>SUM(D54:P54)</f>
         <v>204.12</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <f>德国DAX30!E26</f>
         <v>204.12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <f>恒生!A10</f>
         <v>3988</v>
       </c>
-      <c r="B55" s="15" t="str">
+      <c r="B55" s="12" t="str">
         <f>恒生!C10</f>
         <v>中國銀⾏</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <f>SUM(D55:P55)</f>
         <v>197.76</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="10">
         <f>恒生!G10</f>
         <v>197.76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="str">
+      <c r="A56" s="13" t="str">
         <f>海外中国互联网!B24</f>
         <v>JOBS.US</v>
       </c>
-      <c r="B56" s="16" t="str">
+      <c r="B56" s="13" t="str">
         <f>海外中国互联网!C24</f>
         <v>前程无忧</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="11">
         <f>SUM(D56:P56)</f>
         <v>186.88</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="10">
         <f>海外中国互联网!E24</f>
         <v>186.88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="str">
+      <c r="A57" s="14" t="str">
         <f>德国DAX30!B27</f>
         <v>RWEGY</v>
       </c>
-      <c r="B57" s="17" t="str">
+      <c r="B57" s="14" t="str">
         <f>德国DAX30!C27</f>
         <v>莱茵集团公司</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="11">
         <f>SUM(D57:P57)</f>
         <v>181.44</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="10">
         <f>德国DAX30!E27</f>
         <v>181.44</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="str">
+      <c r="A58" s="14" t="str">
         <f>德国DAX30!B28</f>
         <v>LHAGY</v>
       </c>
-      <c r="B58" s="17" t="str">
+      <c r="B58" s="14" t="str">
         <f>德国DAX30!C28</f>
         <v>德国汉莎航空公司</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="11">
         <f>SUM(D58:P58)</f>
         <v>165.24</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="10">
         <f>德国DAX30!E28</f>
         <v>165.24</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
+      <c r="A59" s="23">
         <f>恒生!A11</f>
         <v>883</v>
       </c>
-      <c r="B59" s="15" t="str">
+      <c r="B59" s="12" t="str">
         <f>恒生!C11</f>
         <v>中國海洋⽯油</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="11">
         <f>SUM(D59:P59)</f>
         <v>164.48000000000002</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="10">
         <f>恒生!G11</f>
         <v>164.48000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="str">
+      <c r="A60" s="14" t="str">
         <f>德国DAX30!B29</f>
         <v>BEIGY</v>
       </c>
-      <c r="B60" s="17" t="str">
+      <c r="B60" s="14" t="str">
         <f>德国DAX30!C29</f>
         <v>拜耳斯道夫股份有限公司</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="11">
         <f>SUM(D60:P60)</f>
         <v>155.51999999999998</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="10">
         <f>德国DAX30!E29</f>
         <v>155.51999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <f>恒生!A12</f>
         <v>1</v>
       </c>
-      <c r="B61" s="15" t="str">
+      <c r="B61" s="12" t="str">
         <f>恒生!C12</f>
         <v>⻑和</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="11">
         <f>SUM(D61:P61)</f>
         <v>153.6</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="10">
         <f>恒生!G12</f>
         <v>153.6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="str">
+      <c r="A62" s="14" t="str">
         <f>德国DAX30!B30</f>
         <v>HEIGY</v>
       </c>
-      <c r="B62" s="17" t="str">
+      <c r="B62" s="14" t="str">
         <f>德国DAX30!C30</f>
         <v>海德堡水泥股份有限公司</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="11">
         <f>SUM(D62:P62)</f>
         <v>139.32</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="10">
         <f>德国DAX30!E30</f>
         <v>139.32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="str">
+      <c r="A63" s="14" t="str">
         <f>德国DAX30!B31</f>
         <v>TKAGY</v>
       </c>
-      <c r="B63" s="17" t="str">
+      <c r="B63" s="14" t="str">
         <f>德国DAX30!C31</f>
         <v>蒂森克虏伯有限公司</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="11">
         <f>SUM(D63:P63)</f>
         <v>131.22</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="10">
         <f>德国DAX30!E31</f>
         <v>131.22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="str">
+      <c r="A64" s="14" t="str">
         <f>德国DAX30!B32</f>
         <v>1COVGY</v>
       </c>
-      <c r="B64" s="17" t="str">
+      <c r="B64" s="14" t="str">
         <f>德国DAX30!C32</f>
         <v>科思创股份公司</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="11">
         <f>SUM(D64:P64)</f>
         <v>129.6</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="10">
         <f>德国DAX30!E32</f>
         <v>129.6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="str">
+      <c r="A65" s="13" t="str">
         <f>海外中国互联网!B25</f>
         <v>03888.HK</v>
       </c>
-      <c r="B65" s="16" t="str">
+      <c r="B65" s="13" t="str">
         <f>海外中国互联网!C25</f>
         <v>金山软件</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="11">
         <f>SUM(D65:P65)</f>
         <v>129.28</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="10">
         <f>海外中国互联网!E25</f>
         <v>129.28</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <f>恒生!A13</f>
         <v>823</v>
       </c>
-      <c r="B66" s="15" t="str">
+      <c r="B66" s="12" t="str">
         <f>恒生!C13</f>
         <v>領展房產基⾦</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="11">
         <f>SUM(D66:P66)</f>
         <v>127.36000000000001</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="10">
         <f>恒生!G13</f>
         <v>127.36000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="22">
+      <c r="A67" s="23">
         <f>恒生!A14</f>
         <v>2</v>
       </c>
-      <c r="B67" s="15" t="str">
+      <c r="B67" s="12" t="str">
         <f>恒生!C14</f>
         <v>中電控股</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="11">
         <f>SUM(D67:P67)</f>
         <v>119.68</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="10">
         <f>恒生!G14</f>
         <v>119.68</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
+      <c r="A68" s="23">
         <f>恒生!A15</f>
         <v>386</v>
       </c>
-      <c r="B68" s="15" t="str">
+      <c r="B68" s="12" t="str">
         <f>恒生!C15</f>
         <v>中國⽯油化⼯股份</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="11">
         <f>SUM(D68:P68)</f>
         <v>117.75999999999999</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="10">
         <f>恒生!G15</f>
         <v>117.75999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <f>恒生!A16</f>
         <v>3</v>
       </c>
-      <c r="B69" s="15" t="str">
+      <c r="B69" s="12" t="str">
         <f>恒生!C16</f>
         <v>香港中華煤氣</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="11">
         <f>SUM(D69:P69)</f>
         <v>114.56</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="10">
         <f>恒生!G16</f>
         <v>114.56</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
+      <c r="A70" s="23">
         <f>恒生!A17</f>
         <v>1113</v>
       </c>
-      <c r="B70" s="15" t="str">
+      <c r="B70" s="12" t="str">
         <f>恒生!C17</f>
         <v>⻑實集團</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="11">
         <f>SUM(D70:P70)</f>
         <v>114.56</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="10">
         <f>恒生!G17</f>
         <v>114.56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="str">
+      <c r="A71" s="13" t="str">
         <f>海外中国互联网!B26</f>
         <v>BZUN.US</v>
       </c>
-      <c r="B71" s="16" t="str">
+      <c r="B71" s="13" t="str">
         <f>海外中国互联网!C26</f>
         <v>宝尊电商</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="11">
         <f>SUM(D71:P71)</f>
         <v>112.64</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="10">
         <f>海外中国互联网!E26</f>
         <v>112.64</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="A72" s="23">
         <f>恒生!A18</f>
         <v>2628</v>
       </c>
-      <c r="B72" s="15" t="str">
+      <c r="B72" s="12" t="str">
         <f>恒生!C18</f>
         <v>中國⼈壽</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="11">
         <f>SUM(D72:P72)</f>
         <v>109.44</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="10">
         <f>恒生!G18</f>
         <v>109.44</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="22">
+      <c r="A73" s="23">
         <f>恒生!A19</f>
         <v>16</v>
       </c>
-      <c r="B73" s="15" t="str">
+      <c r="B73" s="12" t="str">
         <f>恒生!C19</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="11">
         <f>SUM(D73:P73)</f>
         <v>102.4</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="10">
         <f>恒生!G19</f>
         <v>102.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
+      <c r="A74" s="23">
         <f>恒生!A20</f>
         <v>11</v>
       </c>
-      <c r="B74" s="15" t="str">
+      <c r="B74" s="12" t="str">
         <f>恒生!C20</f>
         <v>恒⽣銀⾏</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="11">
         <f>SUM(D74:P74)</f>
         <v>101.12</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="10">
         <f>恒生!G20</f>
         <v>101.12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="22">
+      <c r="A75" s="23">
         <f>恒生!A21</f>
         <v>27</v>
       </c>
-      <c r="B75" s="15" t="str">
+      <c r="B75" s="12" t="str">
         <f>恒生!C21</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="11">
         <f>SUM(D75:P75)</f>
         <v>90.24</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="10">
         <f>恒生!G21</f>
         <v>90.24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="str">
+      <c r="A76" s="13" t="str">
         <f>海外中国互联网!B27</f>
         <v>FANH.US</v>
       </c>
-      <c r="B76" s="16" t="str">
+      <c r="B76" s="13" t="str">
         <f>海外中国互联网!C27</f>
         <v>泛华金控</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="11">
         <f>SUM(D76:P76)</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="10">
         <f>海外中国互联网!E27</f>
         <v>89.600000000000009</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="str">
+      <c r="A77" s="13" t="str">
         <f>海外中国互联网!B28</f>
         <v>BITA.US</v>
       </c>
-      <c r="B77" s="16" t="str">
+      <c r="B77" s="13" t="str">
         <f>海外中国互联网!C28</f>
         <v>易车</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="11">
         <f>SUM(D77:P77)</f>
         <v>87.039999999999992</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="10">
         <f>海外中国互联网!E28</f>
         <v>87.039999999999992</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="22">
+      <c r="A78" s="23">
         <f>恒生!A22</f>
         <v>2388</v>
       </c>
-      <c r="B78" s="15" t="str">
+      <c r="B78" s="12" t="str">
         <f>恒生!C22</f>
         <v>中銀香港</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="11">
         <f>SUM(D78:P78)</f>
         <v>82.56</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="10">
         <f>恒生!G22</f>
         <v>82.56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="str">
+      <c r="A79" s="13" t="str">
         <f>海外中国互联网!B29</f>
         <v>HUYA.US</v>
       </c>
-      <c r="B79" s="16" t="str">
+      <c r="B79" s="13" t="str">
         <f>海外中国互联网!C29</f>
         <v>虎牙</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="11">
         <f>SUM(D79:P79)</f>
         <v>81.92</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="10">
         <f>海外中国互联网!E29</f>
         <v>81.92</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="22">
+      <c r="A80" s="23">
         <f>恒生!A23</f>
         <v>688</v>
       </c>
-      <c r="B80" s="15" t="str">
+      <c r="B80" s="12" t="str">
         <f>恒生!C23</f>
         <v>中國海外發展</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="11">
         <f>SUM(D80:P80)</f>
         <v>75.52</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="10">
         <f>恒生!G23</f>
         <v>75.52</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="22">
+      <c r="A81" s="23">
         <f>恒生!A24</f>
         <v>857</v>
       </c>
-      <c r="B81" s="15" t="str">
+      <c r="B81" s="12" t="str">
         <f>恒生!C24</f>
         <v>中國⽯油股份</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="11">
         <f>SUM(D81:P81)</f>
         <v>74.239999999999995</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="10">
         <f>恒生!G24</f>
         <v>74.239999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="str">
+      <c r="A82" s="13" t="str">
         <f>海外中国互联网!B30</f>
         <v>VNET.US</v>
       </c>
-      <c r="B82" s="16" t="str">
+      <c r="B82" s="13" t="str">
         <f>海外中国互联网!C30</f>
         <v>世纪互联</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="11">
         <f>SUM(D82:P82)</f>
         <v>65.28</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="10">
         <f>海外中国互联网!E30</f>
         <v>65.28</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="22">
+      <c r="A83" s="23">
         <f>恒生!A25</f>
         <v>1928</v>
       </c>
-      <c r="B83" s="15" t="str">
+      <c r="B83" s="12" t="str">
         <f>恒生!C25</f>
         <v>⾦沙中國有限公司</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="11">
         <f>SUM(D83:P83)</f>
         <v>64.64</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="10">
         <f>恒生!G25</f>
         <v>64.64</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="22">
+      <c r="A84" s="23">
         <f>恒生!A26</f>
         <v>66</v>
       </c>
-      <c r="B84" s="15" t="str">
+      <c r="B84" s="12" t="str">
         <f>恒生!C26</f>
         <v>港鐵公司</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="11">
         <f>SUM(D84:P84)</f>
         <v>56.32</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="10">
         <f>恒生!G26</f>
         <v>56.32</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="22">
+      <c r="A85" s="23">
         <f>恒生!A27</f>
         <v>1109</v>
       </c>
-      <c r="B85" s="15" t="str">
+      <c r="B85" s="12" t="str">
         <f>恒生!C27</f>
         <v>華潤置地</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="11">
         <f>SUM(D85:P85)</f>
         <v>55.04</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="10">
         <f>恒生!G27</f>
         <v>55.04</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="22">
+      <c r="A86" s="23">
         <f>恒生!A28</f>
         <v>175</v>
       </c>
-      <c r="B86" s="15" t="str">
+      <c r="B86" s="12" t="str">
         <f>恒生!C28</f>
         <v>吉利汽⾞</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="11">
         <f>SUM(D86:P86)</f>
         <v>53.76</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="10">
         <f>恒生!G28</f>
         <v>53.76</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="22">
+      <c r="A87" s="23">
         <f>恒生!A29</f>
         <v>2007</v>
       </c>
-      <c r="B87" s="15" t="str">
+      <c r="B87" s="12" t="str">
         <f>恒生!C29</f>
         <v>碧桂園</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="11">
         <f>SUM(D87:P87)</f>
         <v>53.12</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="10">
         <f>恒生!G29</f>
         <v>53.12</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="str">
+      <c r="A88" s="13" t="str">
         <f>海外中国互联网!B31</f>
         <v>SOHU.US</v>
       </c>
-      <c r="B88" s="16" t="str">
+      <c r="B88" s="13" t="str">
         <f>海外中国互联网!C31</f>
         <v>搜狐</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="11">
         <f>SUM(D88:P88)</f>
         <v>52.480000000000004</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="10">
         <f>海外中国互联网!E31</f>
         <v>52.480000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="22">
+      <c r="A89" s="23">
         <f>恒生!A30</f>
         <v>17</v>
       </c>
-      <c r="B89" s="15" t="str">
+      <c r="B89" s="12" t="str">
         <f>恒生!C30</f>
         <v>新世界發展</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="11">
         <f>SUM(D89:P89)</f>
         <v>52.47999999999999</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="10">
         <f>恒生!G30</f>
         <v>52.47999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="22">
+      <c r="A90" s="23">
         <f>恒生!A31</f>
         <v>6</v>
       </c>
-      <c r="B90" s="15" t="str">
+      <c r="B90" s="12" t="str">
         <f>恒生!C31</f>
         <v>電能實業</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="11">
         <f>SUM(D90:P90)</f>
         <v>51.2</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="10">
         <f>恒生!G31</f>
         <v>51.2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="str">
+      <c r="A91" s="13" t="str">
         <f>海外中国互联网!B32</f>
         <v>00777.HK</v>
       </c>
-      <c r="B91" s="16" t="str">
+      <c r="B91" s="13" t="str">
         <f>海外中国互联网!C32</f>
         <v>网龙</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="11">
         <f>SUM(D91:P91)</f>
         <v>51.2</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="10">
         <f>海外中国互联网!E32</f>
         <v>51.2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="22">
+      <c r="A92" s="23">
         <f>恒生!A32</f>
         <v>2313</v>
       </c>
-      <c r="B92" s="15" t="str">
+      <c r="B92" s="12" t="str">
         <f>恒生!C32</f>
         <v>申洲國際</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="11">
         <f>SUM(D92:P92)</f>
         <v>49.92</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="10">
         <f>恒生!G32</f>
         <v>49.92</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="22">
+      <c r="A93" s="23">
         <f>恒生!A33</f>
         <v>267</v>
       </c>
-      <c r="B93" s="15" t="str">
+      <c r="B93" s="12" t="str">
         <f>恒生!C33</f>
         <v>中信股份</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="11">
         <f>SUM(D93:P93)</f>
         <v>47.36</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="10">
         <f>恒生!G33</f>
         <v>47.36</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="str">
+      <c r="A94" s="13" t="str">
         <f>海外中国互联网!B33</f>
         <v>02280.HK</v>
       </c>
-      <c r="B94" s="16" t="str">
+      <c r="B94" s="13" t="str">
         <f>海外中国互联网!C33</f>
         <v>慧聪集团</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="11">
         <f>SUM(D94:P94)</f>
         <v>46.08</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="10">
         <f>海外中国互联网!E33</f>
         <v>46.08</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="22">
+      <c r="A95" s="23">
         <f>恒生!A34</f>
         <v>1997</v>
       </c>
-      <c r="B95" s="15" t="str">
+      <c r="B95" s="12" t="str">
         <f>恒生!C34</f>
         <v>九龍倉置業</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="11">
         <f>SUM(D95:P95)</f>
         <v>45.44</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="10">
         <f>恒生!G34</f>
         <v>45.44</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="22">
+      <c r="A96" s="23">
         <f>恒生!A35</f>
         <v>2319</v>
       </c>
-      <c r="B96" s="15" t="str">
+      <c r="B96" s="12" t="str">
         <f>恒生!C35</f>
         <v>蒙⽜乳業</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="11">
         <f>SUM(D96:P96)</f>
         <v>45.44</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="10">
         <f>恒生!G35</f>
         <v>45.44</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="22">
+      <c r="A97" s="23">
         <f>恒生!A36</f>
         <v>2382</v>
       </c>
-      <c r="B97" s="15" t="str">
+      <c r="B97" s="12" t="str">
         <f>恒生!C36</f>
         <v>舜宇光學科技</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="11">
         <f>SUM(D97:P97)</f>
         <v>45.44</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="10">
         <f>恒生!G36</f>
         <v>45.44</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="22">
+      <c r="A98" s="23">
         <f>恒生!A37</f>
         <v>1088</v>
       </c>
-      <c r="B98" s="15" t="str">
+      <c r="B98" s="12" t="str">
         <f>恒生!C37</f>
         <v>中國神華</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="11">
         <f>SUM(D98:P98)</f>
         <v>44.8</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="10">
         <f>恒生!G37</f>
         <v>44.8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="22">
+      <c r="A99" s="23">
         <f>恒生!A38</f>
         <v>1093</v>
       </c>
-      <c r="B99" s="15" t="str">
+      <c r="B99" s="12" t="str">
         <f>恒生!C38</f>
         <v>⽯藥集團</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="11">
         <f>SUM(D99:P99)</f>
         <v>42.88</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="10">
         <f>恒生!G38</f>
         <v>42.88</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="22">
+      <c r="A100" s="23">
         <f>恒生!A39</f>
         <v>288</v>
       </c>
-      <c r="B100" s="15" t="str">
+      <c r="B100" s="12" t="str">
         <f>恒生!C39</f>
         <v>萬洲國際</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="11">
         <f>SUM(D100:P100)</f>
         <v>41.6</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="10">
         <f>恒生!G39</f>
         <v>41.6</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="str">
+      <c r="A101" s="13" t="str">
         <f>海外中国互联网!B34</f>
         <v>SOGO.US</v>
       </c>
-      <c r="B101" s="16" t="str">
+      <c r="B101" s="13" t="str">
         <f>海外中国互联网!C34</f>
         <v>搜狗</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="11">
         <f>SUM(D101:P101)</f>
         <v>40.96</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="10">
         <f>海外中国互联网!E34</f>
         <v>40.96</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="22">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="23">
         <f>恒生!A40</f>
         <v>12</v>
       </c>
-      <c r="B102" s="15" t="str">
+      <c r="B102" s="12" t="str">
         <f>恒生!C40</f>
         <v>恒基地產</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="11">
         <f>SUM(D102:P102)</f>
         <v>39.68</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="10">
         <f>恒生!G40</f>
         <v>39.68</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="22">
+      <c r="A103" s="23">
         <f>恒生!A41</f>
         <v>762</v>
       </c>
-      <c r="B103" s="15" t="str">
+      <c r="B103" s="12" t="str">
         <f>恒生!C41</f>
         <v>中國聯通</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="11">
         <f>SUM(D103:P103)</f>
         <v>39.04</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="10">
         <f>恒生!G41</f>
         <v>39.04</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="22">
+      <c r="A104" s="23">
         <f>恒生!A42</f>
         <v>3328</v>
       </c>
-      <c r="B104" s="15" t="str">
+      <c r="B104" s="12" t="str">
         <f>恒生!C42</f>
         <v>交通銀⾏</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="11">
         <f>SUM(D104:P104)</f>
         <v>39.04</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="10">
         <f>恒生!G42</f>
         <v>39.04</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="str">
+      <c r="A105" s="13" t="str">
         <f>海外中国互联网!B35</f>
         <v>CYOU.US</v>
       </c>
-      <c r="B105" s="16" t="str">
+      <c r="B105" s="13" t="str">
         <f>海外中国互联网!C35</f>
         <v>畅游</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="11">
         <f>SUM(D105:P105)</f>
         <v>33.28</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="10">
         <f>海外中国互联网!E35</f>
         <v>33.28</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="22">
+      <c r="A106" s="23">
         <f>恒生!A43</f>
         <v>1177</v>
       </c>
-      <c r="B106" s="15" t="str">
+      <c r="B106" s="12" t="str">
         <f>恒生!C43</f>
         <v>中國⽣物製藥</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="11">
         <f>SUM(D106:P106)</f>
         <v>32</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="10">
         <f>恒生!G43</f>
         <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="22">
+      <c r="A107" s="23">
         <f>恒生!A44</f>
         <v>19</v>
       </c>
-      <c r="B107" s="15" t="str">
+      <c r="B107" s="12" t="str">
         <f>恒生!C44</f>
         <v>太古股份公司Ａ</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="11">
         <f>SUM(D107:P107)</f>
         <v>31.36</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="10">
         <f>恒生!G44</f>
         <v>31.36</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="22">
+      <c r="A108" s="23">
         <f>恒生!A45</f>
         <v>1044</v>
       </c>
-      <c r="B108" s="15" t="str">
+      <c r="B108" s="12" t="str">
         <f>恒生!C45</f>
         <v>恒安國際</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="11">
         <f>SUM(D108:P108)</f>
         <v>31.36</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="10">
         <f>恒生!G45</f>
         <v>31.36</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="str">
+      <c r="A109" s="13" t="str">
         <f>海外中国互联网!B36</f>
         <v>SFUN.US</v>
       </c>
-      <c r="B109" s="16" t="str">
+      <c r="B109" s="13" t="str">
         <f>海外中国互联网!C36</f>
         <v>搜房网</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="11">
         <f>SUM(D109:P109)</f>
         <v>30.72</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="10">
         <f>海外中国互联网!E36</f>
         <v>30.72</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="22">
+      <c r="A110" s="23">
         <f>恒生!A46</f>
         <v>83</v>
       </c>
-      <c r="B110" s="15" t="str">
+      <c r="B110" s="12" t="str">
         <f>恒生!C46</f>
         <v>信和置業</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="11">
         <f>SUM(D110:P110)</f>
         <v>29.439999999999998</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="10">
         <f>恒生!G46</f>
         <v>29.439999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="22">
+      <c r="A111" s="23">
         <f>恒生!A47</f>
         <v>1038</v>
       </c>
-      <c r="B111" s="15" t="str">
+      <c r="B111" s="12" t="str">
         <f>恒生!C47</f>
         <v>⻑江基建集團</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="11">
         <f>SUM(D111:P111)</f>
         <v>29.439999999999998</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="10">
         <f>恒生!G47</f>
         <v>29.439999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="str">
+      <c r="A112" s="13" t="str">
         <f>海外中国互联网!B37</f>
         <v>01980.HK</v>
       </c>
-      <c r="B112" s="16" t="str">
+      <c r="B112" s="13" t="str">
         <f>海外中国互联网!C37</f>
         <v>天鸽互动</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="11">
         <f>SUM(D112:P112)</f>
         <v>28.16</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="10">
         <f>海外中国互联网!E37</f>
         <v>28.16</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="str">
+      <c r="A113" s="13" t="str">
         <f>海外中国互联网!B38</f>
         <v>06060.HK</v>
       </c>
-      <c r="B113" s="16" t="str">
+      <c r="B113" s="13" t="str">
         <f>海外中国互联网!C38</f>
         <v>众安在线</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="11">
         <f>SUM(D113:P113)</f>
         <v>28.16</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="10">
         <f>海外中国互联网!E38</f>
         <v>28.16</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="22">
+      <c r="A114" s="23">
         <f>恒生!A48</f>
         <v>101</v>
       </c>
-      <c r="B114" s="15" t="str">
+      <c r="B114" s="12" t="str">
         <f>恒生!C48</f>
         <v>恒隆地產</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="11">
         <f>SUM(D114:P114)</f>
         <v>25.6</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="10">
         <f>恒生!G48</f>
         <v>25.6</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="str">
+      <c r="A115" s="13" t="str">
         <f>海外中国互联网!B39</f>
         <v>00400.HK</v>
       </c>
-      <c r="B115" s="16" t="str">
+      <c r="B115" s="13" t="str">
         <f>海外中国互联网!C39</f>
         <v>科通芯城</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="11">
         <f>SUM(D115:P115)</f>
         <v>25.6</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="10">
         <f>海外中国互联网!E39</f>
         <v>25.6</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="22">
+      <c r="A116" s="23">
         <f>恒生!A49</f>
         <v>151</v>
       </c>
-      <c r="B116" s="15" t="str">
+      <c r="B116" s="12" t="str">
         <f>恒生!C49</f>
         <v>中國旺旺</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="11">
         <f>SUM(D116:P116)</f>
         <v>24.32</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="10">
         <f>恒生!G49</f>
         <v>24.32</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="22">
+      <c r="A117" s="23">
         <f>恒生!A50</f>
         <v>2018</v>
       </c>
-      <c r="B117" s="15" t="str">
+      <c r="B117" s="12" t="str">
         <f>恒生!C50</f>
         <v>瑞聲科技</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="11">
         <f>SUM(D117:P117)</f>
         <v>23.04</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="10">
         <f>恒生!G50</f>
         <v>23.04</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="str">
+      <c r="A118" s="13" t="str">
+        <f>海外中国互联网!B41</f>
+        <v>CMCM.US</v>
+      </c>
+      <c r="B118" s="13" t="str">
+        <f>海外中国互联网!C41</f>
+        <v>猎豹移动</v>
+      </c>
+      <c r="C118" s="11">
+        <f>SUM(D118:P118)</f>
+        <v>23.04</v>
+      </c>
+      <c r="E118" s="10">
+        <f>海外中国互联网!E41</f>
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="str">
         <f>海外中国互联网!B40</f>
         <v>TOUR.US</v>
       </c>
-      <c r="B118" s="16" t="str">
+      <c r="B119" s="13" t="str">
         <f>海外中国互联网!C40</f>
         <v>途牛</v>
       </c>
-      <c r="C118" s="14">
-        <f>SUM(D118:P118)</f>
+      <c r="C119" s="11">
+        <f>SUM(D119:P119)</f>
         <v>23.04</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E119" s="10">
         <f>海外中国互联网!E40</f>
         <v>23.04</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="str">
-        <f>海外中国互联网!B41</f>
-        <v>CMCM.US</v>
-      </c>
-      <c r="B119" s="16" t="str">
-        <f>海外中国互联网!C41</f>
-        <v>猎豹移动</v>
-      </c>
-      <c r="C119" s="14">
-        <f>SUM(D119:P119)</f>
-        <v>23.04</v>
-      </c>
-      <c r="E119" s="13">
-        <f>海外中国互联网!E41</f>
-        <v>23.04</v>
-      </c>
-    </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="22">
+      <c r="A120" s="23">
         <f>恒生!A51</f>
         <v>836</v>
       </c>
-      <c r="B120" s="15" t="str">
+      <c r="B120" s="12" t="str">
         <f>恒生!C51</f>
         <v>華潤電⼒</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="11">
         <f>SUM(D120:P120)</f>
         <v>19.2</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D120" s="10">
         <f>恒生!G51</f>
         <v>19.2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="str">
+      <c r="A121" s="13" t="str">
         <f>海外中国互联网!B42</f>
         <v>XNET.US</v>
       </c>
-      <c r="B121" s="16" t="str">
+      <c r="B121" s="13" t="str">
         <f>海外中国互联网!C42</f>
         <v>迅雷</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="11">
         <f>SUM(D121:P121)</f>
         <v>12.8</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="10">
         <f>海外中国互联网!E42</f>
         <v>12.8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="str">
+      <c r="A122" s="13" t="str">
         <f>海外中国互联网!B43</f>
         <v>YRD.US</v>
       </c>
-      <c r="B122" s="16" t="str">
+      <c r="B122" s="13" t="str">
         <f>海外中国互联网!C43</f>
         <v>宜人贷</v>
       </c>
-      <c r="C122" s="14">
+      <c r="C122" s="11">
         <f>SUM(D122:P122)</f>
         <v>7.68</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="10">
         <f>海外中国互联网!E43</f>
         <v>7.68</v>
       </c>
@@ -3664,7 +3666,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3706,7 +3708,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="22">
         <v>1299</v>
       </c>
       <c r="B2" t="s">
@@ -3733,7 +3735,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="22">
         <v>700</v>
       </c>
       <c r="B3" t="s">
@@ -3760,7 +3762,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="22">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -3784,7 +3786,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="22">
         <v>939</v>
       </c>
       <c r="B5" t="s">
@@ -3808,7 +3810,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="22">
         <v>941</v>
       </c>
       <c r="B6" t="s">
@@ -3832,7 +3834,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="22">
         <v>2318</v>
       </c>
       <c r="B7" t="s">
@@ -3856,7 +3858,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="22">
         <v>1398</v>
       </c>
       <c r="B8" t="s">
@@ -3880,7 +3882,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="22">
         <v>388</v>
       </c>
       <c r="B9" t="s">
@@ -3904,7 +3906,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="22">
         <v>3988</v>
       </c>
       <c r="B10" t="s">
@@ -3928,7 +3930,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="22">
         <v>883</v>
       </c>
       <c r="B11" t="s">
@@ -3952,7 +3954,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" t="s">
@@ -3976,7 +3978,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="22">
         <v>823</v>
       </c>
       <c r="B13" t="s">
@@ -4000,7 +4002,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="22">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -4024,7 +4026,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="22">
         <v>386</v>
       </c>
       <c r="B15" t="s">
@@ -4048,7 +4050,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="22">
         <v>3</v>
       </c>
       <c r="B16" t="s">
@@ -4072,7 +4074,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="22">
         <v>1113</v>
       </c>
       <c r="B17" t="s">
@@ -4096,7 +4098,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="22">
         <v>2628</v>
       </c>
       <c r="B18" t="s">
@@ -4120,7 +4122,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="22">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -4144,7 +4146,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="22">
         <v>11</v>
       </c>
       <c r="B20" t="s">
@@ -4168,7 +4170,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="22">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -4192,7 +4194,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="22">
         <v>2388</v>
       </c>
       <c r="B22" t="s">
@@ -4216,7 +4218,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="22">
         <v>688</v>
       </c>
       <c r="B23" t="s">
@@ -4240,7 +4242,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="22">
         <v>857</v>
       </c>
       <c r="B24" t="s">
@@ -4264,7 +4266,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="22">
         <v>1928</v>
       </c>
       <c r="B25" t="s">
@@ -4288,7 +4290,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="22">
         <v>66</v>
       </c>
       <c r="B26" t="s">
@@ -4312,7 +4314,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="22">
         <v>1109</v>
       </c>
       <c r="B27" t="s">
@@ -4336,7 +4338,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="22">
         <v>175</v>
       </c>
       <c r="B28" t="s">
@@ -4360,7 +4362,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="22">
         <v>2007</v>
       </c>
       <c r="B29" t="s">
@@ -4384,7 +4386,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="22">
         <v>17</v>
       </c>
       <c r="B30" t="s">
@@ -4408,7 +4410,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="22">
         <v>6</v>
       </c>
       <c r="B31" t="s">
@@ -4432,7 +4434,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="22">
         <v>2313</v>
       </c>
       <c r="B32" t="s">
@@ -4456,7 +4458,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="22">
         <v>267</v>
       </c>
       <c r="B33" t="s">
@@ -4480,7 +4482,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="22">
         <v>1997</v>
       </c>
       <c r="B34" t="s">
@@ -4504,7 +4506,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="22">
         <v>2319</v>
       </c>
       <c r="B35" t="s">
@@ -4528,7 +4530,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="22">
         <v>2382</v>
       </c>
       <c r="B36" t="s">
@@ -4552,7 +4554,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="22">
         <v>1088</v>
       </c>
       <c r="B37" t="s">
@@ -4576,7 +4578,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="22">
         <v>1093</v>
       </c>
       <c r="B38" t="s">
@@ -4600,7 +4602,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="22">
         <v>288</v>
       </c>
       <c r="B39" t="s">
@@ -4624,7 +4626,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="22">
         <v>12</v>
       </c>
       <c r="B40" t="s">
@@ -4648,7 +4650,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="22">
         <v>762</v>
       </c>
       <c r="B41" t="s">
@@ -4672,7 +4674,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="22">
         <v>3328</v>
       </c>
       <c r="B42" t="s">
@@ -4696,7 +4698,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="22">
         <v>1177</v>
       </c>
       <c r="B43" t="s">
@@ -4720,7 +4722,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="22">
         <v>19</v>
       </c>
       <c r="B44" t="s">
@@ -4744,7 +4746,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="22">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
@@ -4768,7 +4770,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="22">
         <v>83</v>
       </c>
       <c r="B46" t="s">
@@ -4792,7 +4794,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="22">
         <v>1038</v>
       </c>
       <c r="B47" t="s">
@@ -4816,7 +4818,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="22">
         <v>101</v>
       </c>
       <c r="B48" t="s">
@@ -4840,7 +4842,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="22">
         <v>151</v>
       </c>
       <c r="B49" t="s">
@@ -4864,7 +4866,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="22">
         <v>2018</v>
       </c>
       <c r="B50" t="s">
@@ -4888,7 +4890,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="22">
         <v>836</v>
       </c>
       <c r="B51" t="s">
@@ -4927,6 +4929,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4947,24 +4950,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4976,16 +4979,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>0.1123</v>
       </c>
       <c r="E3" s="2">
@@ -4994,16 +4997,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="E4" s="2">
@@ -5012,16 +5015,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="E5" s="2">
@@ -5030,16 +5033,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="E6" s="2">
@@ -5048,16 +5051,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>6.3100000000000003E-2</v>
       </c>
       <c r="E7" s="2">
@@ -5066,16 +5069,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="E8" s="2">
@@ -5084,16 +5087,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>3.8600000000000002E-2</v>
       </c>
       <c r="E9" s="2">
@@ -5102,16 +5105,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="E10" s="2">
@@ -5120,16 +5123,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="E11" s="2">
@@ -5138,16 +5141,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>3.6499999999999998E-2</v>
       </c>
       <c r="E12" s="2">
@@ -5156,16 +5159,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="E13" s="2">
@@ -5174,16 +5177,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E14" s="2">
@@ -5192,16 +5195,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="E15" s="2">
@@ -5210,16 +5213,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="E16" s="2">
@@ -5228,16 +5231,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>2.64E-2</v>
       </c>
       <c r="E17" s="2">
@@ -5246,16 +5249,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="E18" s="2">
@@ -5264,16 +5267,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>2.29E-2</v>
       </c>
       <c r="E19" s="2">
@@ -5282,16 +5285,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="E20" s="2">
@@ -5300,16 +5303,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="E21" s="2">
@@ -5318,16 +5321,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="E22" s="2">
@@ -5336,16 +5339,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="E23" s="2">
@@ -5354,16 +5357,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>1.46E-2</v>
       </c>
       <c r="E24" s="2">
@@ -5372,16 +5375,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>1.01E-2</v>
       </c>
       <c r="E25" s="2">
@@ -5390,16 +5393,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="E26" s="2">
@@ -5408,16 +5411,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E27" s="2">
@@ -5426,16 +5429,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="E28" s="2">
@@ -5444,16 +5447,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="E29" s="2">
@@ -5462,16 +5465,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="E30" s="2">
@@ -5480,16 +5483,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E31" s="2">
@@ -5498,16 +5501,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E32" s="2">
@@ -5516,16 +5519,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E33" s="2">
@@ -5534,16 +5537,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E34" s="2">
@@ -5552,16 +5555,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E35" s="2">
@@ -5570,16 +5573,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E36" s="2">
@@ -5588,16 +5591,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E37" s="2">
@@ -5606,16 +5609,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E38" s="2">
@@ -5624,16 +5627,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>2E-3</v>
       </c>
       <c r="E39" s="2">
@@ -5642,16 +5645,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>1.8E-3</v>
       </c>
       <c r="E40" s="2">
@@ -5660,16 +5663,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>1.8E-3</v>
       </c>
       <c r="E41" s="2">
@@ -5678,16 +5681,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>1E-3</v>
       </c>
       <c r="E42" s="2">
@@ -5696,16 +5699,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E43" s="2">
@@ -5828,24 +5831,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5857,16 +5860,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>9.69E-2</v>
       </c>
       <c r="E3" s="2">
@@ -5875,16 +5878,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="E4" s="2">
@@ -5893,16 +5896,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="E5" s="2">
@@ -5911,16 +5914,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="E6" s="2">
@@ -5929,16 +5932,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E7" s="2">
@@ -5947,16 +5950,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="E8" s="2">
@@ -5965,16 +5968,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="2">
@@ -5983,16 +5986,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="E10" s="2">
@@ -6001,16 +6004,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="E11" s="2">
@@ -6019,16 +6022,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="E12" s="2">
@@ -6037,16 +6040,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>2.81E-2</v>
       </c>
       <c r="E13" s="2">
@@ -6055,16 +6058,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2.47E-2</v>
       </c>
       <c r="E14" s="2">
@@ -6073,16 +6076,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>2.47E-2</v>
       </c>
       <c r="E15" s="2">
@@ -6091,16 +6094,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="E16" s="2">
@@ -6109,16 +6112,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>2.12E-2</v>
       </c>
       <c r="E17" s="2">
@@ -6127,16 +6130,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="E18" s="2">
@@ -6145,16 +6148,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="E19" s="2">
@@ -6163,16 +6166,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>1.89E-2</v>
       </c>
       <c r="E20" s="2">
@@ -6181,16 +6184,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="E21" s="2">
@@ -6199,16 +6202,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="E22" s="2">
@@ -6217,16 +6220,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="E23" s="2">
@@ -6235,16 +6238,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>1.4E-2</v>
       </c>
       <c r="E24" s="2">
@@ -6253,16 +6256,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="E25" s="2">
@@ -6271,16 +6274,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>1.26E-2</v>
       </c>
       <c r="E26" s="2">
@@ -6289,16 +6292,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>1.12E-2</v>
       </c>
       <c r="E27" s="2">
@@ -6307,16 +6310,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E28" s="2">
@@ -6325,16 +6328,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="E29" s="2">
@@ -6343,16 +6346,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>8.6E-3</v>
       </c>
       <c r="E30" s="2">
@@ -6361,16 +6364,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E31" s="2">
@@ -6379,16 +6382,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E32" s="2">
